--- a/public/expense/example-expense.xlsx
+++ b/public/expense/example-expense.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD86867-390F-44F9-B2AD-1B961A51B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03BE9F3-A914-4C01-A702-80AF607FBE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FDCC3545-A98A-4E7E-8231-9132B4158086}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{73959308-1AF4-4820-8153-E85E4D2008C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Tanggal</t>
   </si>
   <si>
+    <t>Adjuster</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Nama</t>
   </si>
   <si>
+    <t>Qty</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -52,25 +58,16 @@
     <t>TE</t>
   </si>
   <si>
-    <t>TOLL</t>
-  </si>
-  <si>
-    <t>Adjuster</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>20/10/2021</t>
-  </si>
-  <si>
-    <t>KM</t>
+    <t>MEALS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +114,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,17 +428,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D01427-3157-49A2-8C74-C75AECF6DED4}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC510286-1133-4ED5-BBF6-ACABCC802425}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -449,124 +445,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="2">
+        <v>44198</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5000000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
+      <c r="A3" s="2">
+        <v>44199</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3500</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="2">
+        <v>44200</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="2">
+        <v>44201</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5000000</v>
+        <v>125000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>